--- a/artfynd/A 33548-2023.xlsx
+++ b/artfynd/A 33548-2023.xlsx
@@ -3483,10 +3483,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111221658</v>
+        <v>111227320</v>
       </c>
       <c r="B22" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3499,26 +3499,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3526,10 +3531,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>367259.9635948636</v>
+        <v>367250.4893208001</v>
       </c>
       <c r="R22" t="n">
-        <v>6877283.116891825</v>
+        <v>6877317.812129297</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3561,7 +3566,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3571,12 +3576,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Växer på lutande gammal sälg i fuktig grankontinuitetsskog.</t>
+          <t>Hackmärken på gran. Tretåspår finns i utspritt i hela granskogen.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3585,7 +3590,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3596,22 +3600,22 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Fuktig grnakontinuitetsskog</t>
+          <t>Grankontinutitesskog.</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3629,7 +3633,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111227320</v>
+        <v>111227901</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3677,10 +3681,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>367250.4893208001</v>
+        <v>367499.9659167422</v>
       </c>
       <c r="R23" t="n">
-        <v>6877317.812129297</v>
+        <v>6877291.140066629</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3707,27 +3711,27 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-07-30</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-07-30</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Hackmärken på gran. Tretåspår finns i utspritt i hela granskogen.</t>
+          <t>Hackmärken på flertalet gamla granar.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3746,22 +3750,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Grankontinutitesskog.</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3779,7 +3768,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111227901</v>
+        <v>111227586</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3827,13 +3816,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>367499.9659167422</v>
+        <v>367248.4137618911</v>
       </c>
       <c r="R24" t="n">
-        <v>6877291.140066629</v>
+        <v>6877324.946284994</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3857,27 +3846,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Hackmärken på flertalet gamla granar.</t>
+          <t>Hackmärken på gran</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3896,7 +3885,22 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Fuktig grannaturskog.</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3914,7 +3918,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111227666</v>
+        <v>111227944</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3962,13 +3966,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>367254.8127195985</v>
+        <v>367509.064285708</v>
       </c>
       <c r="R25" t="n">
-        <v>6877319.994098838</v>
+        <v>6877295.016832094</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3992,27 +3996,27 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-07-30</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-07-30</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Hackmärken på gran.</t>
+          <t>Hackmärken på grov gammal gran. Fuktig gammegranskog med källbäckar.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -4049,7 +4053,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111227944</v>
+        <v>111221122</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -4097,10 +4101,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>367509.064285708</v>
+        <v>367352.9685645845</v>
       </c>
       <c r="R26" t="n">
-        <v>6877295.016832094</v>
+        <v>6877277.131142004</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -4127,27 +4131,27 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Hackmärken på grov gammal gran. Fuktig gammegranskog med källbäckar.</t>
+          <t>Hackmärken på gran.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4166,7 +4170,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>Grannaturskog.</t>
+          <t>Fuktig källpåverkad grannaturskog.</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4184,10 +4188,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111221122</v>
+        <v>111221362</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4200,31 +4204,30 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -4232,10 +4235,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>367352.9685645845</v>
+        <v>367359.0259571387</v>
       </c>
       <c r="R27" t="n">
-        <v>6877277.131142004</v>
+        <v>6877275.483886365</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -4267,7 +4270,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -4277,12 +4280,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Hackmärken på gran.</t>
+          <t>Växer resupinat på undersidan av granlåga.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4291,6 +4294,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -4301,7 +4305,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>Fuktig källpåverkad grannaturskog.</t>
+          <t>Grankontinuitetsskog. Källpåverkad fuktig lokalmiljö</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -4319,10 +4323,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111221362</v>
+        <v>111221658</v>
       </c>
       <c r="B28" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4335,29 +4339,25 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>367359.0259571387</v>
+        <v>367259.9635948636</v>
       </c>
       <c r="R28" t="n">
-        <v>6877275.483886365</v>
+        <v>6877283.116891825</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Växer resupinat på undersidan av granlåga.</t>
+          <t>Växer på lutande gammal sälg i fuktig grankontinuitetsskog.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4436,7 +4436,22 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>Grankontinuitetsskog. Källpåverkad fuktig lokalmiljö</t>
+          <t>Fuktig grnakontinuitetsskog</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4454,7 +4469,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111227586</v>
+        <v>111227666</v>
       </c>
       <c r="B29" t="n">
         <v>56398</v>
@@ -4502,10 +4517,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>367248.4137618911</v>
+        <v>367254.8127195985</v>
       </c>
       <c r="R29" t="n">
-        <v>6877324.946284994</v>
+        <v>6877319.994098838</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4537,7 +4552,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4547,12 +4562,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Hackmärken på gran</t>
+          <t>Hackmärken på gran.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4571,22 +4586,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>Fuktig grannaturskog.</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Grannaturskog.</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4864,10 +4864,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111358288</v>
+        <v>111355912</v>
       </c>
       <c r="B32" t="n">
-        <v>95532</v>
+        <v>73696</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4876,31 +4876,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221945</v>
+        <v>6440</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4908,10 +4907,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367244.7553745224</v>
+        <v>367365.3834173826</v>
       </c>
       <c r="R32" t="n">
-        <v>6877315.685314978</v>
+        <v>6877426.168084201</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4943,7 +4942,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4953,12 +4952,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Lummerväxter växer i stor mängd i skogsområdet</t>
+          <t>Växer på gammal gran som är snitslad av Mellanskog.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4979,6 +4978,21 @@
       <c r="AI32" t="inlineStr">
         <is>
           <t>Grannaturskog</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4996,10 +5010,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111355912</v>
+        <v>111357794</v>
       </c>
       <c r="B33" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -5008,30 +5022,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -5039,10 +5054,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367365.3834173826</v>
+        <v>367349.0144895007</v>
       </c>
       <c r="R33" t="n">
-        <v>6877426.168084201</v>
+        <v>6877453.137823995</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -5074,7 +5089,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -5084,12 +5099,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Växer på gammal gran som är snitslad av Mellanskog.</t>
+          <t>Flertalet plantor inom några kvm i grannaturskog</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -5110,21 +5125,6 @@
       <c r="AI33" t="inlineStr">
         <is>
           <t>Grannaturskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111358214</v>
+        <v>111357840</v>
       </c>
       <c r="B34" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -5158,21 +5158,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -5185,10 +5185,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367225.8747160842</v>
+        <v>367293.7760285549</v>
       </c>
       <c r="R34" t="n">
-        <v>6877314.542789092</v>
+        <v>6877401.225212204</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -5230,12 +5230,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Växer på gamal sälg</t>
+          <t>Skogen är hänglavsrik med långa bålar.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5255,22 +5255,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>Fuktig grannaturskog</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -5288,7 +5273,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111358801</v>
+        <v>111357675</v>
       </c>
       <c r="B35" t="n">
         <v>96368</v>
@@ -5332,10 +5317,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367379.1282350773</v>
+        <v>367367.2640777439</v>
       </c>
       <c r="R35" t="n">
-        <v>6877428.452265346</v>
+        <v>6877426.094615285</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -5367,7 +5352,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -5377,12 +5362,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>10 -tals plantor</t>
+          <t>Många plantor av spindelblosmter. Finns utspridd i hela skogen.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5402,7 +5387,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>Fuktig grannaturskog</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5420,10 +5405,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111357955</v>
+        <v>111358759</v>
       </c>
       <c r="B36" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5432,39 +5417,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5472,10 +5448,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>367250.4893208001</v>
+        <v>367361.6488811045</v>
       </c>
       <c r="R36" t="n">
-        <v>6877317.812129297</v>
+        <v>6877475.21281712</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -5507,7 +5483,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -5517,7 +5493,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Växer på grov sälg</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5538,6 +5519,21 @@
       <c r="AI36" t="inlineStr">
         <is>
           <t>Grannaturskog</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5555,7 +5551,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111358171</v>
+        <v>111358801</v>
       </c>
       <c r="B37" t="n">
         <v>96368</v>
@@ -5599,10 +5595,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>367256.9250051867</v>
+        <v>367379.1282350773</v>
       </c>
       <c r="R37" t="n">
-        <v>6877313.798904967</v>
+        <v>6877428.452265346</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -5634,7 +5630,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5644,12 +5640,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Flertalet plantor</t>
+          <t>10 -tals plantor</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5669,7 +5665,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Fuktig grannaturskog</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5687,10 +5683,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111358759</v>
+        <v>111357523</v>
       </c>
       <c r="B38" t="n">
-        <v>78579</v>
+        <v>78081</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5703,21 +5699,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2081</v>
+        <v>229821</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5730,10 +5726,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>367361.6488811045</v>
+        <v>367297.1312965819</v>
       </c>
       <c r="R38" t="n">
-        <v>6877475.21281712</v>
+        <v>6877354.545063579</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5765,7 +5761,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5775,12 +5771,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Växer på grov sälg</t>
+          <t>växer på silverstubbe  med brandljud</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5800,22 +5796,22 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Naturskog.</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5833,10 +5829,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111357840</v>
+        <v>111358214</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5849,21 +5845,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5876,10 +5872,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>367293.7760285549</v>
+        <v>367225.8747160842</v>
       </c>
       <c r="R39" t="n">
-        <v>6877401.225212204</v>
+        <v>6877314.542789092</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5911,7 +5907,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5921,12 +5917,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Skogen är hänglavsrik med långa bålar.</t>
+          <t>Växer på gamal sälg</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5946,7 +5942,22 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Fuktig grannaturskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5964,10 +5975,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111358524</v>
+        <v>111358288</v>
       </c>
       <c r="B40" t="n">
-        <v>78579</v>
+        <v>95532</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5976,30 +5987,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2081</v>
+        <v>221945</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -6007,10 +6019,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>367239.6455721884</v>
+        <v>367244.7553745224</v>
       </c>
       <c r="R40" t="n">
-        <v>6877329.520917758</v>
+        <v>6877315.685314978</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -6057,7 +6069,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Växer på gammal sälg i fuktig grannaturskog</t>
+          <t>Lummerväxter växer i stor mängd i skogsområdet</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -6077,22 +6089,7 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>Fuktig grannaturskog</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -6110,10 +6107,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111357523</v>
+        <v>111357955</v>
       </c>
       <c r="B41" t="n">
-        <v>78081</v>
+        <v>96368</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -6122,30 +6119,39 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>229821</v>
+        <v>221952</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -6153,10 +6159,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>367297.1312965819</v>
+        <v>367250.4893208001</v>
       </c>
       <c r="R41" t="n">
-        <v>6877354.545063579</v>
+        <v>6877317.812129297</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -6188,7 +6194,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -6198,12 +6204,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>växer på silverstubbe  med brandljud</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -6223,22 +6224,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>Naturskog.</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -6256,10 +6242,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111357675</v>
+        <v>111358524</v>
       </c>
       <c r="B42" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -6268,31 +6254,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -6300,10 +6285,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>367367.2640777439</v>
+        <v>367239.6455721884</v>
       </c>
       <c r="R42" t="n">
-        <v>6877426.094615285</v>
+        <v>6877329.520917758</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -6335,7 +6320,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -6345,12 +6330,12 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Många plantor av spindelblosmter. Finns utspridd i hela skogen.</t>
+          <t>Växer på gammal sälg i fuktig grannaturskog</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -6370,7 +6355,22 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Fuktig grannaturskog</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111357794</v>
+        <v>111358171</v>
       </c>
       <c r="B43" t="n">
         <v>96368</v>
@@ -6432,10 +6432,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>367349.0144895007</v>
+        <v>367256.9250051867</v>
       </c>
       <c r="R43" t="n">
-        <v>6877453.137823995</v>
+        <v>6877313.798904967</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -6477,12 +6477,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Flertalet plantor inom några kvm i grannaturskog</t>
+          <t>Flertalet plantor</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6661,10 +6661,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111366550</v>
+        <v>111362562</v>
       </c>
       <c r="B45" t="n">
-        <v>57580</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6673,36 +6673,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>208249</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>nyligen använt bo</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -6710,13 +6709,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>367370.4653471896</v>
+        <v>367403.2299621082</v>
       </c>
       <c r="R45" t="n">
-        <v>6877327.229400039</v>
+        <v>6877285.982634271</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -6760,7 +6759,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Hoppade i blåbärsriset ner i en källhåla i skogen</t>
+          <t>Boplats tretåig hackspett. Nyligen blåst omkull eller på annat sätt fallit ner.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6769,7 +6768,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -6780,7 +6778,7 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Källpåverkad grannaturskog</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6798,10 +6796,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111362562</v>
+        <v>111366550</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>57580</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6810,35 +6808,36 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>208249</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>nyligen använt bo</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6846,13 +6845,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>367403.2299621082</v>
+        <v>367370.4653471896</v>
       </c>
       <c r="R46" t="n">
-        <v>6877285.982634271</v>
+        <v>6877327.229400039</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6896,7 +6895,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Boplats tretåig hackspett. Nyligen blåst omkull eller på annat sätt fallit ner.</t>
+          <t>Hoppade i blåbärsriset ner i en källhåla i skogen</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6905,6 +6904,7 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>Källpåverkad grannaturskog</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>

--- a/artfynd/A 33548-2023.xlsx
+++ b/artfynd/A 33548-2023.xlsx
@@ -4864,10 +4864,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111355912</v>
+        <v>111358524</v>
       </c>
       <c r="B32" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4880,21 +4880,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4907,10 +4907,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367365.3834173826</v>
+        <v>367239.6455721884</v>
       </c>
       <c r="R32" t="n">
-        <v>6877426.168084201</v>
+        <v>6877329.520917758</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4952,12 +4952,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Växer på gammal gran som är snitslad av Mellanskog.</t>
+          <t>Växer på gammal sälg i fuktig grannaturskog</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4977,22 +4977,22 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Fuktig grannaturskog</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111357794</v>
+        <v>111357523</v>
       </c>
       <c r="B33" t="n">
-        <v>96368</v>
+        <v>78081</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -5022,31 +5022,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>221952</v>
+        <v>229821</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -5054,10 +5053,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367349.0144895007</v>
+        <v>367297.1312965819</v>
       </c>
       <c r="R33" t="n">
-        <v>6877453.137823995</v>
+        <v>6877354.545063579</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -5089,7 +5088,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -5099,12 +5098,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Flertalet plantor inom några kvm i grannaturskog</t>
+          <t>växer på silverstubbe  med brandljud</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -5124,7 +5123,22 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Naturskog.</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -5142,10 +5156,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111357840</v>
+        <v>111357675</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -5154,30 +5168,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -5185,10 +5200,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367293.7760285549</v>
+        <v>367367.2640777439</v>
       </c>
       <c r="R34" t="n">
-        <v>6877401.225212204</v>
+        <v>6877426.094615285</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5220,7 +5235,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -5230,12 +5245,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Skogen är hänglavsrik med långa bålar.</t>
+          <t>Många plantor av spindelblosmter. Finns utspridd i hela skogen.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5273,7 +5288,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111357675</v>
+        <v>111358801</v>
       </c>
       <c r="B35" t="n">
         <v>96368</v>
@@ -5317,10 +5332,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367367.2640777439</v>
+        <v>367379.1282350773</v>
       </c>
       <c r="R35" t="n">
-        <v>6877426.094615285</v>
+        <v>6877428.452265346</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -5352,7 +5367,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -5362,12 +5377,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Många plantor av spindelblosmter. Finns utspridd i hela skogen.</t>
+          <t>10 -tals plantor</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5387,7 +5402,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Fuktig grannaturskog</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5405,10 +5420,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111358759</v>
+        <v>111357955</v>
       </c>
       <c r="B36" t="n">
-        <v>78579</v>
+        <v>96368</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5417,30 +5432,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -5448,10 +5472,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>367361.6488811045</v>
+        <v>367250.4893208001</v>
       </c>
       <c r="R36" t="n">
-        <v>6877475.21281712</v>
+        <v>6877317.812129297</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -5483,7 +5507,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -5493,12 +5517,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Växer på grov sälg</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5519,21 +5538,6 @@
       <c r="AI36" t="inlineStr">
         <is>
           <t>Grannaturskog</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5551,7 +5555,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111358801</v>
+        <v>111357794</v>
       </c>
       <c r="B37" t="n">
         <v>96368</v>
@@ -5595,10 +5599,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>367379.1282350773</v>
+        <v>367349.0144895007</v>
       </c>
       <c r="R37" t="n">
-        <v>6877428.452265346</v>
+        <v>6877453.137823995</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -5630,7 +5634,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5640,12 +5644,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>10 -tals plantor</t>
+          <t>Flertalet plantor inom några kvm i grannaturskog</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5665,7 +5669,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>Fuktig grannaturskog</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -5683,10 +5687,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111357523</v>
+        <v>111358171</v>
       </c>
       <c r="B38" t="n">
-        <v>78081</v>
+        <v>96368</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5695,30 +5699,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>229821</v>
+        <v>221952</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -5726,10 +5731,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>367297.1312965819</v>
+        <v>367256.9250051867</v>
       </c>
       <c r="R38" t="n">
-        <v>6877354.545063579</v>
+        <v>6877313.798904967</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5761,7 +5766,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5771,12 +5776,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>växer på silverstubbe  med brandljud</t>
+          <t>Flertalet plantor</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5796,22 +5801,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>Naturskog.</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5829,7 +5819,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111358214</v>
+        <v>111358759</v>
       </c>
       <c r="B39" t="n">
         <v>78579</v>
@@ -5872,10 +5862,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>367225.8747160842</v>
+        <v>367361.6488811045</v>
       </c>
       <c r="R39" t="n">
-        <v>6877314.542789092</v>
+        <v>6877475.21281712</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5907,7 +5897,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5917,12 +5907,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Växer på gamal sälg</t>
+          <t>Växer på grov sälg</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5942,7 +5932,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>Fuktig grannaturskog</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -5975,10 +5965,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111358288</v>
+        <v>111357840</v>
       </c>
       <c r="B40" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5987,31 +5977,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -6019,10 +6008,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>367244.7553745224</v>
+        <v>367293.7760285549</v>
       </c>
       <c r="R40" t="n">
-        <v>6877315.685314978</v>
+        <v>6877401.225212204</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -6054,7 +6043,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -6064,12 +6053,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Lummerväxter växer i stor mängd i skogsområdet</t>
+          <t>Skogen är hänglavsrik med långa bålar.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -6107,10 +6096,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111357955</v>
+        <v>111358214</v>
       </c>
       <c r="B41" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -6119,39 +6108,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -6159,10 +6139,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>367250.4893208001</v>
+        <v>367225.8747160842</v>
       </c>
       <c r="R41" t="n">
-        <v>6877317.812129297</v>
+        <v>6877314.542789092</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -6194,7 +6174,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -6204,7 +6184,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Växer på gamal sälg</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -6224,7 +6209,22 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Fuktig grannaturskog</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -6242,10 +6242,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111358524</v>
+        <v>111355912</v>
       </c>
       <c r="B42" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -6258,21 +6258,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -6285,10 +6285,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>367239.6455721884</v>
+        <v>367365.3834173826</v>
       </c>
       <c r="R42" t="n">
-        <v>6877329.520917758</v>
+        <v>6877426.168084201</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -6330,12 +6330,12 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Växer på gammal sälg i fuktig grannaturskog</t>
+          <t>Växer på gammal gran som är snitslad av Mellanskog.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -6355,22 +6355,22 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>Fuktig grannaturskog</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6388,10 +6388,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111358171</v>
+        <v>111358288</v>
       </c>
       <c r="B43" t="n">
-        <v>96368</v>
+        <v>95532</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -6404,21 +6404,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221952</v>
+        <v>221945</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -6432,10 +6432,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>367256.9250051867</v>
+        <v>367244.7553745224</v>
       </c>
       <c r="R43" t="n">
-        <v>6877313.798904967</v>
+        <v>6877315.685314978</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -6477,12 +6477,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Flertalet plantor</t>
+          <t>Lummerväxter växer i stor mängd i skogsområdet</t>
         </is>
       </c>
       <c r="AD43" t="b">

--- a/artfynd/A 33548-2023.xlsx
+++ b/artfynd/A 33548-2023.xlsx
@@ -4864,10 +4864,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111358524</v>
+        <v>111357523</v>
       </c>
       <c r="B32" t="n">
-        <v>78579</v>
+        <v>78081</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4880,21 +4880,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2081</v>
+        <v>229821</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4907,10 +4907,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>367239.6455721884</v>
+        <v>367297.1312965819</v>
       </c>
       <c r="R32" t="n">
-        <v>6877329.520917758</v>
+        <v>6877354.545063579</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4952,12 +4952,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Växer på gammal sälg i fuktig grannaturskog</t>
+          <t>växer på silverstubbe  med brandljud</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4977,22 +4977,22 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>Fuktig grannaturskog</t>
+          <t>Naturskog.</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111357523</v>
+        <v>111358214</v>
       </c>
       <c r="B33" t="n">
-        <v>78081</v>
+        <v>78579</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -5026,21 +5026,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>229821</v>
+        <v>2081</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -5053,10 +5053,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>367297.1312965819</v>
+        <v>367225.8747160842</v>
       </c>
       <c r="R33" t="n">
-        <v>6877354.545063579</v>
+        <v>6877314.542789092</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -5098,12 +5098,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>växer på silverstubbe  med brandljud</t>
+          <t>Växer på gamal sälg</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -5123,22 +5123,22 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>Naturskog.</t>
+          <t>Fuktig grannaturskog</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111357675</v>
+        <v>111357955</v>
       </c>
       <c r="B34" t="n">
         <v>96368</v>
@@ -5189,8 +5189,16 @@
           <t>(L.) Rich.</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -5200,10 +5208,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>367367.2640777439</v>
+        <v>367250.4893208001</v>
       </c>
       <c r="R34" t="n">
-        <v>6877426.094615285</v>
+        <v>6877317.812129297</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -5235,7 +5243,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -5245,12 +5253,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Många plantor av spindelblosmter. Finns utspridd i hela skogen.</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5288,10 +5291,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111358801</v>
+        <v>111355912</v>
       </c>
       <c r="B35" t="n">
-        <v>96368</v>
+        <v>73696</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -5300,31 +5303,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221952</v>
+        <v>6440</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -5332,10 +5334,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>367379.1282350773</v>
+        <v>367365.3834173826</v>
       </c>
       <c r="R35" t="n">
-        <v>6877428.452265346</v>
+        <v>6877426.168084201</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -5367,7 +5369,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -5377,12 +5379,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>10 -tals plantor</t>
+          <t>Växer på gammal gran som är snitslad av Mellanskog.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5402,7 +5404,22 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>Fuktig grannaturskog</t>
+          <t>Grannaturskog</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -5420,7 +5437,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111357955</v>
+        <v>111357675</v>
       </c>
       <c r="B36" t="n">
         <v>96368</v>
@@ -5453,16 +5470,8 @@
           <t>(L.) Rich.</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -5472,10 +5481,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>367250.4893208001</v>
+        <v>367367.2640777439</v>
       </c>
       <c r="R36" t="n">
-        <v>6877317.812129297</v>
+        <v>6877426.094615285</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -5507,7 +5516,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -5517,7 +5526,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Många plantor av spindelblosmter. Finns utspridd i hela skogen.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5555,10 +5569,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111357794</v>
+        <v>111357840</v>
       </c>
       <c r="B37" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5567,31 +5581,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -5599,10 +5612,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>367349.0144895007</v>
+        <v>367293.7760285549</v>
       </c>
       <c r="R37" t="n">
-        <v>6877453.137823995</v>
+        <v>6877401.225212204</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -5634,7 +5647,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5644,12 +5657,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Flertalet plantor inom några kvm i grannaturskog</t>
+          <t>Skogen är hänglavsrik med långa bålar.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5687,7 +5700,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111358171</v>
+        <v>111358801</v>
       </c>
       <c r="B38" t="n">
         <v>96368</v>
@@ -5731,10 +5744,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>367256.9250051867</v>
+        <v>367379.1282350773</v>
       </c>
       <c r="R38" t="n">
-        <v>6877313.798904967</v>
+        <v>6877428.452265346</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5766,7 +5779,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5776,12 +5789,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Flertalet plantor</t>
+          <t>10 -tals plantor</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5801,7 +5814,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Fuktig grannaturskog</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5819,10 +5832,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111358759</v>
+        <v>111358171</v>
       </c>
       <c r="B39" t="n">
-        <v>78579</v>
+        <v>96368</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5831,30 +5844,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5862,10 +5876,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>367361.6488811045</v>
+        <v>367256.9250051867</v>
       </c>
       <c r="R39" t="n">
-        <v>6877475.21281712</v>
+        <v>6877313.798904967</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5897,7 +5911,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5907,12 +5921,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Växer på grov sälg</t>
+          <t>Flertalet plantor</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5933,21 +5947,6 @@
       <c r="AI39" t="inlineStr">
         <is>
           <t>Grannaturskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5965,10 +5964,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111357840</v>
+        <v>111357794</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5977,30 +5976,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -6008,10 +6008,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>367293.7760285549</v>
+        <v>367349.0144895007</v>
       </c>
       <c r="R40" t="n">
-        <v>6877401.225212204</v>
+        <v>6877453.137823995</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -6053,12 +6053,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Skogen är hänglavsrik med långa bålar.</t>
+          <t>Flertalet plantor inom några kvm i grannaturskog</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -6096,10 +6096,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111358214</v>
+        <v>111358288</v>
       </c>
       <c r="B41" t="n">
-        <v>78579</v>
+        <v>95532</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -6108,30 +6108,31 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2081</v>
+        <v>221945</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
@@ -6139,10 +6140,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>367225.8747160842</v>
+        <v>367244.7553745224</v>
       </c>
       <c r="R41" t="n">
-        <v>6877314.542789092</v>
+        <v>6877315.685314978</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -6189,7 +6190,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Växer på gamal sälg</t>
+          <t>Lummerväxter växer i stor mängd i skogsområdet</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -6209,22 +6210,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>Fuktig grannaturskog</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -6242,10 +6228,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111355912</v>
+        <v>111358524</v>
       </c>
       <c r="B42" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -6258,21 +6244,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -6285,10 +6271,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>367365.3834173826</v>
+        <v>367239.6455721884</v>
       </c>
       <c r="R42" t="n">
-        <v>6877426.168084201</v>
+        <v>6877329.520917758</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -6320,7 +6306,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -6330,12 +6316,12 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Växer på gammal gran som är snitslad av Mellanskog.</t>
+          <t>Växer på gammal sälg i fuktig grannaturskog</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -6355,22 +6341,22 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Fuktig grannaturskog</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -6388,10 +6374,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111358288</v>
+        <v>111358759</v>
       </c>
       <c r="B43" t="n">
-        <v>95532</v>
+        <v>78579</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -6400,31 +6386,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221945</v>
+        <v>2081</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
@@ -6432,10 +6417,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>367244.7553745224</v>
+        <v>367361.6488811045</v>
       </c>
       <c r="R43" t="n">
-        <v>6877315.685314978</v>
+        <v>6877475.21281712</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6467,7 +6452,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -6477,12 +6462,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Lummerväxter växer i stor mängd i skogsområdet</t>
+          <t>Växer på grov sälg</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6503,6 +6488,21 @@
       <c r="AI43" t="inlineStr">
         <is>
           <t>Grannaturskog</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111366200</v>
+        <v>111366550</v>
       </c>
       <c r="B44" t="n">
         <v>57580</v>
@@ -6561,11 +6561,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6573,10 +6569,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>367379.213297962</v>
+        <v>367370.4653471896</v>
       </c>
       <c r="R44" t="n">
-        <v>6877418.575064567</v>
+        <v>6877327.229400039</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6608,7 +6604,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -6618,12 +6614,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Stor vanlig groda i bäckfåra. Flertalet grodor observerades i skogsområdet</t>
+          <t>Hoppade i blåbärsriset ner i en källhåla i skogen</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6643,7 +6639,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>Källpåverkad grannaturskog</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6796,7 +6792,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111366550</v>
+        <v>111366200</v>
       </c>
       <c r="B46" t="n">
         <v>57580</v>
@@ -6837,7 +6833,11 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6845,10 +6845,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>367370.4653471896</v>
+        <v>367379.213297962</v>
       </c>
       <c r="R46" t="n">
-        <v>6877327.229400039</v>
+        <v>6877418.575064567</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -6890,12 +6890,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Hoppade i blåbärsriset ner i en källhåla i skogen</t>
+          <t>Stor vanlig groda i bäckfåra. Flertalet grodor observerades i skogsområdet</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Källpåverkad grannaturskog</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>

--- a/artfynd/A 33548-2023.xlsx
+++ b/artfynd/A 33548-2023.xlsx
@@ -6520,7 +6520,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111366550</v>
+        <v>111366200</v>
       </c>
       <c r="B44" t="n">
         <v>57580</v>
@@ -6561,7 +6561,11 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -6569,10 +6573,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>367370.4653471896</v>
+        <v>367379.213297962</v>
       </c>
       <c r="R44" t="n">
-        <v>6877327.229400039</v>
+        <v>6877418.575064567</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -6604,7 +6608,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -6614,12 +6618,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Hoppade i blåbärsriset ner i en källhåla i skogen</t>
+          <t>Stor vanlig groda i bäckfåra. Flertalet grodor observerades i skogsområdet</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6639,7 +6643,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Källpåverkad grannaturskog</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6792,7 +6796,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111366200</v>
+        <v>111366550</v>
       </c>
       <c r="B46" t="n">
         <v>57580</v>
@@ -6833,11 +6837,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -6845,10 +6845,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>367379.213297962</v>
+        <v>367370.4653471896</v>
       </c>
       <c r="R46" t="n">
-        <v>6877418.575064567</v>
+        <v>6877327.229400039</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -6890,12 +6890,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Stor vanlig groda i bäckfåra. Flertalet grodor observerades i skogsområdet</t>
+          <t>Hoppade i blåbärsriset ner i en källhåla i skogen</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>Källpåverkad grannaturskog</t>
+          <t>Grannaturskog</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
